--- a/statistics_final.xlsx
+++ b/statistics_final.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyfdo\Desktop\python_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45038D28-00FB-455F-B984-B002FABC3B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC243A-D787-44C6-9F36-66AB8F6E29ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sentiment" sheetId="1" r:id="rId1"/>
+    <sheet name="sentiment &amp; coverage" sheetId="1" r:id="rId1"/>
+    <sheet name="topics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
   <si>
     <t>pos</t>
   </si>
@@ -39,6 +40,30 @@
     <t>neg</t>
   </si>
   <si>
+    <t>wgbh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pos rate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>neg rate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sentiment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coverage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>bg14</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -83,83 +108,324 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>pos rate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>neg rate</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLACK</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ALL</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sentiment</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coverage</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>all</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg14</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg15</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg16</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg17</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bg18</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wbur14</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wbur15</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wbur16</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wbur17</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wbur18</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wgbh</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>all nbh</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>black nbh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>coverage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>black nbh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>all nbh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boston Globe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WBUR</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>WGBH</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>other nbh</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>neu rate</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg14b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg15b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg16b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg17b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg18b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg14a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg15a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg16a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg17a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bg18a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbur14b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbur15b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbur16b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbur17b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbur18b</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbur14a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbur15a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbur16a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbur17a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbur18a</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>massachusetts 000 public housing million</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>council wall keolis contract councilor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>police court black officers man</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>percent 000 public health students</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>snow 2024 olympic line south</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>state massachusetts percent public million</t>
+  </si>
+  <si>
+    <t>life world way day old</t>
+  </si>
+  <si>
+    <t>company food 000 percent use</t>
+  </si>
+  <si>
+    <t>game team season sox games</t>
+  </si>
+  <si>
+    <t>game team season patriots sox</t>
+  </si>
+  <si>
+    <t>percent company state million massachusetts</t>
+  </si>
+  <si>
+    <t>state school president students governor</t>
+  </si>
+  <si>
+    <t>life way don day old</t>
+  </si>
+  <si>
+    <t>police state court case according</t>
+  </si>
+  <si>
+    <t>police school state students court</t>
+  </si>
+  <si>
+    <t>game team season just games</t>
+  </si>
+  <si>
+    <t>like just day life way</t>
+  </si>
+  <si>
+    <t>state company percent million massachusetts</t>
+  </si>
+  <si>
+    <t>trump clinton president campaign state</t>
+  </si>
+  <si>
+    <t>company percent million 000 companies</t>
+  </si>
+  <si>
+    <t>trump president house white campaign</t>
+  </si>
+  <si>
+    <t>like just day don way</t>
+  </si>
+  <si>
+    <t>state health care massachusetts school</t>
+  </si>
+  <si>
+    <t>police state court according man</t>
+  </si>
+  <si>
+    <t>day home snow street old</t>
+  </si>
+  <si>
+    <t>police school state court family</t>
+  </si>
+  <si>
+    <t>state percent company million massachusetts</t>
+  </si>
+  <si>
+    <t>trump president state campaign house</t>
+  </si>
+  <si>
+    <t>police state court depart case</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xa0 street team sox day</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trump president white jackson black</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>life children family father mother</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>school students percent million schools</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>police depart court officers according</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>black white trump president american</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>police street officers man court</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>school students schools public percent</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>massachusetts health depart public office</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>life day world way xa0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>trump clinton campaign president voters</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>day world new way old</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>police officers man old street</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>school students black schools community</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>school students percent schools public</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>police officers street man court</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>black life white hernandez day</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>work new building food home</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>school menino mayor day family</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>world black new american african</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014 top 5 topics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016 top 5 topics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017 top 5 topics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018 top 5 topics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLACK BG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL BG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015 top 5 topics</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +433,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,6 +605,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -935,7 +1207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -943,9 +1215,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -991,6 +1260,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,6 +1324,5016 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sentiment &amp; coverage'!$Q$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Boston Globe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-23BD-4A70-A77D-841B250FA029}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-23BD-4A70-A77D-841B250FA029}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-23BD-4A70-A77D-841B250FA029}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>
+</c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-23BD-4A70-A77D-841B250FA029}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('sentiment &amp; coverage'!$R$17,'sentiment &amp; coverage'!$T$17)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>black nbh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>other nbh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('sentiment &amp; coverage'!$R$18,'sentiment &amp; coverage'!$T$18)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15673</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6860</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23BD-4A70-A77D-841B250FA029}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sentiment &amp; coverage'!$Q$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WBUR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5EC0-414B-8535-5C580AD0DBBB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5EC0-414B-8535-5C580AD0DBBB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('sentiment &amp; coverage'!$R$17,'sentiment &amp; coverage'!$T$17)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>black nbh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>other nbh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('sentiment &amp; coverage'!$R$19,'sentiment &amp; coverage'!$T$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1288-4E57-985A-0167BEA9758F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sentiment &amp; coverage'!$Q$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WGBH</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B32E-4494-9253-4F03B9DE1DF0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="25000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B32E-4494-9253-4F03B9DE1DF0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:separator>
+</c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('sentiment &amp; coverage'!$R$17,'sentiment &amp; coverage'!$T$17)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>black nbh</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>other nbh</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('sentiment &amp; coverage'!$R$20,'sentiment &amp; coverage'!$T$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A47C-48FC-B791-036EAC768218}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sentiment &amp; coverage'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pos rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('sentiment &amp; coverage'!$B$5:$B$9,'sentiment &amp; coverage'!$B$17:$B$22)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>bg14b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bg15b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bg16b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bg17b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bg18b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bg14a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bg15a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bg16a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bg17a</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bg18a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('sentiment &amp; coverage'!$F$5:$F$9,'sentiment &amp; coverage'!$F$17:$F$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.64189189189189189</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59775999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61341929321872013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59346330275229353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60282233747436975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72658268733850129</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70440740740740737</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67684607164951349</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63726239373388094</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6853832185167037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8081-4100-9470-DF572F90A563}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sentiment &amp; coverage'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>neu rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('sentiment &amp; coverage'!$B$5:$B$9,'sentiment &amp; coverage'!$B$17:$B$22)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>bg14b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bg15b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bg16b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bg17b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bg18b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bg14a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bg15a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bg16a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bg17a</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bg18a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('sentiment &amp; coverage'!$G$5:$G$9,'sentiment &amp; coverage'!$G$17:$G$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.8262548262548262E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5367717287488063E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6314984709480123E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9451212157761429E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1574074074074073E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6703703703703705E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9975816883189923E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4811347788709522E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6215663102066699E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8081-4100-9470-DF572F90A563}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sentiment &amp; coverage'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>neg rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('sentiment &amp; coverage'!$B$5:$B$9,'sentiment &amp; coverage'!$B$17:$B$22)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>bg14b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bg15b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>bg16b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>bg17b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>bg18b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>bg14a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>bg15a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>bg16a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>bg17a</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>bg18a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('sentiment &amp; coverage'!$H$5:$H$9,'sentiment &amp; coverage'!$H$17:$H$22)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.3532818532818533</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38204393505253104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4029051987767584</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39223254130985408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26184323858742464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2688888888888889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29317811146729655</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.33792625847740948</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28840111838122962</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8081-4100-9470-DF572F90A563}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="649136848"/>
+        <c:axId val="649137168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="649136848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649137168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="649137168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="649136848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sentiment &amp; coverage'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>pos rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('sentiment &amp; coverage'!$B$10:$B$14,'sentiment &amp; coverage'!$B$17,'sentiment &amp; coverage'!$B$23:$B$27)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>wbur14b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wbur15b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>wbur16b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>wbur17b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>wbur18b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>wbur14a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wbur15a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wbur16a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>wbur17a</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>wbur18a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('sentiment &amp; coverage'!$F$10:$F$14,'sentiment &amp; coverage'!$F$17,'sentiment &amp; coverage'!$F$23:$F$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.61948955916473314</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55639097744360899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66091954022988508</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.747588424437299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76981707317073167</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.60301093008867812</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59390596270028895</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.62675411836485662</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6692574600971547</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.67029504439988541</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FA0-4162-968B-94390F0A02E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sentiment &amp; coverage'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>neu rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('sentiment &amp; coverage'!$B$10:$B$14,'sentiment &amp; coverage'!$B$17,'sentiment &amp; coverage'!$B$23:$B$27)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>wbur14b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wbur15b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>wbur16b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>wbur17b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>wbur18b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>wbur14a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wbur15a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wbur16a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>wbur17a</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>wbur18a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('sentiment &amp; coverage'!$G$10:$G$14,'sentiment &amp; coverage'!$G$17,'sentiment &amp; coverage'!$G$23:$G$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.6403712296983757E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5187969924812026E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.1839080459770114E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.6463022508038593E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.621951219512195E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9903072798515156E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.859469398476491E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5234899328859058E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3726578764746704E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3995989687768545E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5FA0-4162-968B-94390F0A02E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'sentiment &amp; coverage'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>neg rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>('sentiment &amp; coverage'!$B$10:$B$14,'sentiment &amp; coverage'!$B$17,'sentiment &amp; coverage'!$B$23:$B$27)</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>wbur14b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wbur15b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>wbur16b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>wbur17b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>wbur18b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>wbur14a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>wbur15a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>wbur16a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>wbur17a</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>wbur18a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('sentiment &amp; coverage'!$H$10:$H$14,'sentiment &amp; coverage'!$H$17,'sentiment &amp; coverage'!$H$23:$H$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.37587006960556846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43609022556390975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33189655172413796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2427652733118971</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2225609756097561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36708599711280676</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35749934331494615</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.33801098230628435</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29701596113809853</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.27570896591234606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5FA0-4162-968B-94390F0A02E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="599023888"/>
+        <c:axId val="599031568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="599023888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599031568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="599031568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="599023888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="261">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="dkDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="317500" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="25000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="matte"/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:alpha val="78000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="304">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B86527A9-6DB0-4191-906C-242B652DA60B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>80580</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>366330</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4534F6E6-71F9-45CB-AC50-8EF0F3938B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>44161</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>336714</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D561EBC3-B44C-4B25-8705-2E09E4C291BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="图表 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74A15D96-D6EB-4E7C-B478-D56A0EE85179}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="图表 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7006C716-1037-427F-80EE-FEB3074CFA0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1348,10 +6633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L28"/>
+  <dimension ref="B2:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:G29"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1359,83 +6644,95 @@
     <col min="1" max="16384" width="9.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18"/>
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="F4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="T4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="7">
+    <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5">
         <v>1330</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>10</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>732</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <f>C5/(C5+D5+E5)</f>
         <v>0.64189189189189189</v>
       </c>
-      <c r="G5" s="8">
-        <f>E5/(C5+D5+E5)</f>
+      <c r="G5" s="6">
+        <f>D5/(C5+D5+E5)</f>
+        <v>4.8262548262548262E-3</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H15" si="0">E5/(C5+D5+E5)</f>
         <v>0.3532818532818533</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="Q5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="5">
         <v>1509</v>
       </c>
-      <c r="K5" s="7">
+      <c r="S5" s="6">
         <v>2181</v>
       </c>
-      <c r="L5" s="8">
+      <c r="T5" s="7">
         <v>18597</v>
       </c>
+      <c r="U5" s="15">
+        <f>R5/S5</f>
+        <v>0.69188445667125176</v>
+      </c>
     </row>
-    <row r="6" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
+    <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="8">
         <v>1868</v>
       </c>
       <c r="D6" s="2">
@@ -1444,32 +6741,40 @@
       <c r="E6" s="2">
         <v>1245</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" ref="F6:F15" si="0">C6/(C6+D6+E6)</f>
+      <c r="F6" s="8">
+        <f t="shared" ref="F6:F15" si="1">C6/(C6+D6+E6)</f>
         <v>0.59775999999999996</v>
       </c>
-      <c r="G6" s="10">
-        <f t="shared" ref="G6:G15" si="1">E6/(C6+D6+E6)</f>
+      <c r="G6" s="2">
+        <f>D6/(C6+D6+E6)</f>
+        <v>3.8400000000000001E-3</v>
+      </c>
+      <c r="H6" s="9">
+        <f t="shared" si="0"/>
         <v>0.39839999999999998</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="Q6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="8">
         <v>2276</v>
       </c>
-      <c r="K6" s="2">
+      <c r="S6" s="2">
         <v>3273</v>
       </c>
-      <c r="L6" s="10">
+      <c r="T6" s="9">
         <v>27112</v>
       </c>
+      <c r="U6" s="16">
+        <f>R6/S6</f>
+        <v>0.69538649556981358</v>
+      </c>
     </row>
-    <row r="7" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
+    <row r="7" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8">
         <v>2569</v>
       </c>
       <c r="D7" s="2">
@@ -1478,32 +6783,40 @@
       <c r="E7" s="2">
         <v>1600</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.61341929321872013</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" ref="G7:G15" si="2">D7/(C7+D7+E7)</f>
+        <v>4.5367717287488063E-3</v>
+      </c>
+      <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>0.61341929321872013</v>
-      </c>
-      <c r="G7" s="10">
-        <f t="shared" si="1"/>
         <v>0.38204393505253104</v>
       </c>
-      <c r="I7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="Q7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="8">
         <v>2636</v>
       </c>
-      <c r="K7" s="2">
+      <c r="S7" s="2">
         <v>3873</v>
       </c>
-      <c r="L7" s="10">
+      <c r="T7" s="9">
         <v>35761</v>
       </c>
+      <c r="U7" s="16">
+        <f t="shared" ref="U7:U15" si="3">R7/S7</f>
+        <v>0.68060934675961782</v>
+      </c>
     </row>
-    <row r="8" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
+    <row r="8" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="8">
         <v>3105</v>
       </c>
       <c r="D8" s="2">
@@ -1512,100 +6825,124 @@
       <c r="E8" s="2">
         <v>2108</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.59346330275229353</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>3.6314984709480123E-3</v>
+      </c>
+      <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>0.59346330275229353</v>
-      </c>
-      <c r="G8" s="10">
+        <v>0.4029051987767584</v>
+      </c>
+      <c r="Q8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="8">
+        <v>3486</v>
+      </c>
+      <c r="S8" s="2">
+        <v>4932</v>
+      </c>
+      <c r="T8" s="9">
+        <v>42114</v>
+      </c>
+      <c r="U8" s="16">
+        <f t="shared" si="3"/>
+        <v>0.70681265206812649</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4998</v>
+      </c>
+      <c r="D9" s="11">
+        <v>41</v>
+      </c>
+      <c r="E9" s="11">
+        <v>3252</v>
+      </c>
+      <c r="F9" s="10">
         <f t="shared" si="1"/>
-        <v>0.4029051987767584</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="9">
-        <v>3486</v>
-      </c>
-      <c r="K8" s="2">
-        <v>4932</v>
-      </c>
-      <c r="L8" s="10">
-        <v>42114</v>
+        <v>0.60282233747436975</v>
+      </c>
+      <c r="G9" s="11">
+        <f t="shared" si="2"/>
+        <v>4.9451212157761429E-3</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>0.39223254130985408</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="10">
+        <v>5766</v>
+      </c>
+      <c r="S9" s="11">
+        <v>8274</v>
+      </c>
+      <c r="T9" s="12">
+        <v>69646</v>
+      </c>
+      <c r="U9" s="17">
+        <f t="shared" si="3"/>
+        <v>0.69688179840464104</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="12">
-        <v>4998</v>
-      </c>
-      <c r="D9" s="12">
+    <row r="10" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5">
+        <v>267</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>162</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="1"/>
+        <v>0.61948955916473314</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="2"/>
+        <v>4.6403712296983757E-3</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.37587006960556846</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="5">
+        <v>194</v>
+      </c>
+      <c r="S10" s="6">
+        <v>261</v>
+      </c>
+      <c r="T10" s="7">
+        <v>4872</v>
+      </c>
+      <c r="U10" s="15">
+        <f t="shared" si="3"/>
+        <v>0.74329501915708818</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="12">
-        <v>3252</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="0"/>
-        <v>0.60282233747436975</v>
-      </c>
-      <c r="G9" s="13">
-        <f t="shared" si="1"/>
-        <v>0.39223254130985408</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="9">
-        <v>5766</v>
-      </c>
-      <c r="K9" s="2">
-        <v>8274</v>
-      </c>
-      <c r="L9" s="10">
-        <v>69646</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7">
-        <v>267</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7">
-        <v>162</v>
-      </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>0.61948955916473314</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="1"/>
-        <v>0.37587006960556846</v>
-      </c>
-      <c r="I10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="9">
-        <v>194</v>
-      </c>
-      <c r="K10" s="2">
-        <v>261</v>
-      </c>
-      <c r="L10" s="10">
-        <v>4872</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="C11" s="8">
         <v>222</v>
       </c>
       <c r="D11" s="2">
@@ -1614,32 +6951,40 @@
       <c r="E11" s="2">
         <v>174</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.55639097744360899</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>7.5187969924812026E-3</v>
+      </c>
+      <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>0.55639097744360899</v>
-      </c>
-      <c r="G11" s="10">
-        <f t="shared" si="1"/>
         <v>0.43609022556390975</v>
       </c>
-      <c r="I11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="9">
+      <c r="Q11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="R11" s="8">
         <v>242</v>
       </c>
-      <c r="K11" s="2">
+      <c r="S11" s="2">
         <v>310</v>
       </c>
-      <c r="L11" s="10">
+      <c r="T11" s="9">
         <v>3814</v>
       </c>
+      <c r="U11" s="16">
+        <f t="shared" si="3"/>
+        <v>0.78064516129032258</v>
+      </c>
     </row>
-    <row r="12" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2">
+    <row r="12" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="8">
         <v>460</v>
       </c>
       <c r="D12" s="2">
@@ -1648,32 +6993,40 @@
       <c r="E12" s="2">
         <v>231</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.66091954022988508</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>7.1839080459770114E-3</v>
+      </c>
+      <c r="H12" s="9">
         <f t="shared" si="0"/>
-        <v>0.66091954022988508</v>
-      </c>
-      <c r="G12" s="10">
-        <f t="shared" si="1"/>
         <v>0.33189655172413796</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="9">
+      <c r="Q12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="8">
         <v>300</v>
       </c>
-      <c r="K12" s="2">
+      <c r="S12" s="2">
         <v>380</v>
       </c>
-      <c r="L12" s="10">
+      <c r="T12" s="9">
         <v>6558</v>
       </c>
+      <c r="U12" s="16">
+        <f t="shared" si="3"/>
+        <v>0.78947368421052633</v>
+      </c>
     </row>
-    <row r="13" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
+    <row r="13" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="8">
         <v>465</v>
       </c>
       <c r="D13" s="2">
@@ -1682,261 +7035,799 @@
       <c r="E13" s="2">
         <v>151</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>0.747588424437299</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>9.6463022508038593E-3</v>
+      </c>
+      <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>0.747588424437299</v>
-      </c>
-      <c r="G13" s="10">
+        <v>0.2427652733118971</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="8">
+        <v>338</v>
+      </c>
+      <c r="S13" s="2">
+        <v>512</v>
+      </c>
+      <c r="T13" s="9">
+        <v>7213</v>
+      </c>
+      <c r="U13" s="16">
+        <f t="shared" si="3"/>
+        <v>0.66015625</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10">
+        <v>505</v>
+      </c>
+      <c r="D14" s="11">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11">
+        <v>146</v>
+      </c>
+      <c r="F14" s="10">
         <f t="shared" si="1"/>
-        <v>0.2427652733118971</v>
-      </c>
-      <c r="I13" s="17" t="s">
+        <v>0.76981707317073167</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="2"/>
+        <v>7.621951219512195E-3</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="0"/>
+        <v>0.2225609756097561</v>
+      </c>
+      <c r="Q14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="10">
+        <v>306</v>
+      </c>
+      <c r="S14" s="11">
+        <v>519</v>
+      </c>
+      <c r="T14" s="12">
+        <v>6987</v>
+      </c>
+      <c r="U14" s="17">
+        <f t="shared" si="3"/>
+        <v>0.58959537572254339</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="13">
+        <v>114</v>
+      </c>
+      <c r="D15" s="3">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3">
+        <v>20</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="1"/>
+        <v>0.77027027027027029</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="2"/>
+        <v>9.45945945945946E-2</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="0"/>
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="I15" s="2">
+        <f>SUM(C15:E15)</f>
+        <v>148</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="10">
+        <v>79</v>
+      </c>
+      <c r="S15" s="11">
+        <v>124</v>
+      </c>
+      <c r="T15" s="12">
+        <v>1506</v>
+      </c>
+      <c r="U15" s="14">
+        <f t="shared" si="3"/>
+        <v>0.63709677419354838</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C16" s="2">
+        <f>SUM(C10:C14)</f>
+        <v>1919</v>
+      </c>
+      <c r="D16" s="2">
+        <f>SUM(D10:D14)</f>
+        <v>21</v>
+      </c>
+      <c r="E16" s="2">
+        <f>SUM(E10:E14)</f>
+        <v>864</v>
+      </c>
+      <c r="F16" s="2">
+        <f>SUM(C16:E16)</f>
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="18"/>
+      <c r="C17" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="9">
-        <v>338</v>
-      </c>
-      <c r="K13" s="2">
-        <v>512</v>
-      </c>
-      <c r="L13" s="10">
-        <v>7213</v>
+      <c r="H17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="12">
-        <v>505</v>
-      </c>
-      <c r="D14" s="12">
-        <v>5</v>
-      </c>
-      <c r="E14" s="12">
-        <v>146</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="0"/>
-        <v>0.76981707317073167</v>
-      </c>
-      <c r="G14" s="13">
-        <f t="shared" si="1"/>
-        <v>0.2225609756097561</v>
-      </c>
-      <c r="I14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="J14" s="9">
-        <v>306</v>
-      </c>
-      <c r="K14" s="2">
-        <v>519</v>
-      </c>
-      <c r="L14" s="10">
-        <v>6987</v>
+    <row r="18" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5">
+        <v>13497</v>
+      </c>
+      <c r="D18" s="6">
+        <v>215</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4864</v>
+      </c>
+      <c r="F18" s="5">
+        <f>C18/(C18+D18+E18)</f>
+        <v>0.72658268733850129</v>
+      </c>
+      <c r="G18" s="6">
+        <f>D18/(C18+D18+E18)</f>
+        <v>1.1574074074074073E-2</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" ref="H18:H28" si="4">E18/(C18+D18+E18)</f>
+        <v>0.26184323858742464</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="2">
+        <f>SUM(R5:R9)</f>
+        <v>15673</v>
+      </c>
+      <c r="S18" s="2">
+        <f>SUM(S5:S9)</f>
+        <v>22533</v>
+      </c>
+      <c r="T18" s="2">
+        <f>SUM(S5:S9)-SUM(R5:R9)</f>
+        <v>6860</v>
+      </c>
+      <c r="U18" s="2">
+        <f>R18/S18</f>
+        <v>0.6955576265921094</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="4">
-        <v>114</v>
-      </c>
-      <c r="D15" s="4">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>0.77027027027027029</v>
-      </c>
-      <c r="G15" s="5">
-        <f t="shared" si="1"/>
-        <v>0.13513513513513514</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="11">
+    <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8">
+        <v>19019</v>
+      </c>
+      <c r="D19" s="2">
+        <v>721</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7260</v>
+      </c>
+      <c r="F19" s="8">
+        <f t="shared" ref="F19:F28" si="5">C19/(C19+D19+E19)</f>
+        <v>0.70440740740740737</v>
+      </c>
+      <c r="G19" s="2">
+        <f>D19/(C19+D19+E19)</f>
+        <v>2.6703703703703705E-2</v>
+      </c>
+      <c r="H19" s="9">
+        <f t="shared" si="4"/>
+        <v>0.2688888888888889</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="2">
+        <f>SUM(R10:R14)</f>
+        <v>1380</v>
+      </c>
+      <c r="S19" s="2">
+        <f>SUM(S10:S14)</f>
+        <v>1982</v>
+      </c>
+      <c r="T19" s="2">
+        <f>SUM(S10:S14)-SUM(R10:R14)</f>
+        <v>602</v>
+      </c>
+      <c r="U19" s="2">
+        <f>R19/S19</f>
+        <v>0.69626639757820386</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="8">
+        <v>24070</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1066</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10426</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="5"/>
+        <v>0.67684607164951349</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" ref="G20:G28" si="6">D20/(C20+D20+E20)</f>
+        <v>2.9975816883189923E-2</v>
+      </c>
+      <c r="H20" s="9">
+        <f t="shared" si="4"/>
+        <v>0.29317811146729655</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" s="2">
+        <f>R15</f>
         <v>79</v>
       </c>
-      <c r="K15" s="12">
+      <c r="S20" s="2">
+        <f>S15</f>
         <v>124</v>
       </c>
-      <c r="L15" s="13">
-        <v>1506</v>
+      <c r="T20" s="2">
+        <f>S15-R15</f>
+        <v>45</v>
+      </c>
+      <c r="U20" s="2">
+        <f>R20/S20</f>
+        <v>0.63709677419354838</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>15</v>
+    <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="8">
+        <v>26686</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1039</v>
+      </c>
+      <c r="E21" s="2">
+        <v>14151</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" si="5"/>
+        <v>0.63726239373388094</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="6"/>
+        <v>2.4811347788709522E-2</v>
+      </c>
+      <c r="H21" s="9">
+        <f t="shared" si="4"/>
+        <v>0.33792625847740948</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
+    <row r="22" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="10">
+        <v>47556</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1819</v>
+      </c>
+      <c r="E22" s="11">
+        <v>20011</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="5"/>
+        <v>0.6853832185167037</v>
+      </c>
+      <c r="G22" s="11">
+        <f t="shared" si="6"/>
+        <v>2.6215663102066699E-2</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="4"/>
+        <v>0.28840111838122962</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2924</v>
+      </c>
+      <c r="D23" s="6">
+        <v>145</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1780</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="5"/>
+        <v>0.60301093008867812</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="6"/>
+        <v>2.9903072798515156E-2</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="4"/>
+        <v>0.36708599711280676</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2261</v>
+      </c>
+      <c r="D24" s="2">
+        <v>185</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1361</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" si="5"/>
+        <v>0.59390596270028895</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="6"/>
+        <v>4.859469398476491E-2</v>
+      </c>
+      <c r="H24" s="9">
+        <f t="shared" si="4"/>
+        <v>0.35749934331494615</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="8">
+        <v>4109</v>
+      </c>
+      <c r="D25" s="2">
+        <v>231</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2216</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="5"/>
+        <v>0.62675411836485662</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5234899328859058E-2</v>
+      </c>
+      <c r="H25" s="9">
+        <f t="shared" si="4"/>
+        <v>0.33801098230628435</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="8">
+        <v>4822</v>
+      </c>
+      <c r="D26" s="2">
+        <v>243</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2140</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="5"/>
+        <v>0.6692574600971547</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="6"/>
+        <v>3.3726578764746704E-2</v>
+      </c>
+      <c r="H26" s="9">
+        <f t="shared" si="4"/>
+        <v>0.29701596113809853</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="10">
+        <v>4680</v>
+      </c>
+      <c r="D27" s="11">
+        <v>377</v>
+      </c>
+      <c r="E27" s="11">
+        <v>1925</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="5"/>
+        <v>0.67029504439988541</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="6"/>
+        <v>5.3995989687768545E-2</v>
+      </c>
+      <c r="H27" s="12">
+        <f t="shared" si="4"/>
+        <v>0.27570896591234606</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="2" t="e">
-        <f>C18/(C18+D18+E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="2" t="e">
-        <f>E18/(C18+D18+E18)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="2" t="e">
-        <f t="shared" ref="F19:F28" si="2">C19/(C19+D19+E19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="2" t="e">
-        <f t="shared" ref="G19:G28" si="3">E19/(C19+D19+E19)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G23" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="2" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G28" s="2" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="C28" s="13">
+        <v>1176</v>
+      </c>
+      <c r="D28" s="3">
+        <v>101</v>
+      </c>
+      <c r="E28" s="3">
+        <v>227</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="5"/>
+        <v>0.78191489361702127</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="6"/>
+        <v>6.7154255319148939E-2</v>
+      </c>
+      <c r="H28" s="4">
+        <f t="shared" si="4"/>
+        <v>0.15093085106382978</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34479BFE-9DFF-4875-8A05-71FE2334A2CD}">
+  <dimension ref="A1:E66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="56.25" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="56.25" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/statistics_final.xlsx
+++ b/statistics_final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyfdo\Desktop\python_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC243A-D787-44C6-9F36-66AB8F6E29ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFBB8B6-8A2D-460D-A411-72170B7F56BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>pos</t>
   </si>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>all</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>bg14</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -248,79 +244,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>state massachusetts percent public million</t>
-  </si>
-  <si>
-    <t>life world way day old</t>
-  </si>
-  <si>
-    <t>company food 000 percent use</t>
-  </si>
-  <si>
-    <t>game team season sox games</t>
-  </si>
-  <si>
-    <t>game team season patriots sox</t>
-  </si>
-  <si>
-    <t>percent company state million massachusetts</t>
-  </si>
-  <si>
-    <t>state school president students governor</t>
-  </si>
-  <si>
-    <t>life way don day old</t>
-  </si>
-  <si>
-    <t>police state court case according</t>
-  </si>
-  <si>
-    <t>police school state students court</t>
-  </si>
-  <si>
-    <t>game team season just games</t>
-  </si>
-  <si>
-    <t>like just day life way</t>
-  </si>
-  <si>
-    <t>state company percent million massachusetts</t>
-  </si>
-  <si>
-    <t>trump clinton president campaign state</t>
-  </si>
-  <si>
-    <t>company percent million 000 companies</t>
-  </si>
-  <si>
-    <t>trump president house white campaign</t>
-  </si>
-  <si>
-    <t>like just day don way</t>
-  </si>
-  <si>
-    <t>state health care massachusetts school</t>
-  </si>
-  <si>
-    <t>police state court according man</t>
-  </si>
-  <si>
-    <t>day home snow street old</t>
-  </si>
-  <si>
-    <t>police school state court family</t>
-  </si>
-  <si>
-    <t>state percent company million massachusetts</t>
-  </si>
-  <si>
-    <t>trump president state campaign house</t>
-  </si>
-  <si>
-    <t>police state court depart case</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>xa0 street team sox day</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -421,11 +344,11 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>ALL BG</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>2015 top 5 topics</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>all news</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6636,7 +6559,7 @@
   <dimension ref="B2:U28"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6667,28 +6590,28 @@
         <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="15"/>
       <c r="R4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="U4" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="S4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="T4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5">
         <v>1330</v>
@@ -6712,7 +6635,7 @@
         <v>0.3532818532818533</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R5" s="5">
         <v>1509</v>
@@ -6730,7 +6653,7 @@
     </row>
     <row r="6" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="8">
         <v>1868</v>
@@ -6754,7 +6677,7 @@
         <v>0.39839999999999998</v>
       </c>
       <c r="Q6" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R6" s="8">
         <v>2276</v>
@@ -6772,7 +6695,7 @@
     </row>
     <row r="7" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="8">
         <v>2569</v>
@@ -6796,7 +6719,7 @@
         <v>0.38204393505253104</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R7" s="8">
         <v>2636</v>
@@ -6814,7 +6737,7 @@
     </row>
     <row r="8" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8">
         <v>3105</v>
@@ -6838,7 +6761,7 @@
         <v>0.4029051987767584</v>
       </c>
       <c r="Q8" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R8" s="8">
         <v>3486</v>
@@ -6856,7 +6779,7 @@
     </row>
     <row r="9" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="10">
         <v>4998</v>
@@ -6880,7 +6803,7 @@
         <v>0.39223254130985408</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R9" s="10">
         <v>5766</v>
@@ -6898,7 +6821,7 @@
     </row>
     <row r="10" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="5">
         <v>267</v>
@@ -6922,7 +6845,7 @@
         <v>0.37587006960556846</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R10" s="5">
         <v>194</v>
@@ -6940,7 +6863,7 @@
     </row>
     <row r="11" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="8">
         <v>222</v>
@@ -6964,7 +6887,7 @@
         <v>0.43609022556390975</v>
       </c>
       <c r="Q11" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R11" s="8">
         <v>242</v>
@@ -6982,7 +6905,7 @@
     </row>
     <row r="12" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="8">
         <v>460</v>
@@ -7006,7 +6929,7 @@
         <v>0.33189655172413796</v>
       </c>
       <c r="Q12" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R12" s="8">
         <v>300</v>
@@ -7024,7 +6947,7 @@
     </row>
     <row r="13" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="8">
         <v>465</v>
@@ -7048,7 +6971,7 @@
         <v>0.2427652733118971</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R13" s="8">
         <v>338</v>
@@ -7066,7 +6989,7 @@
     </row>
     <row r="14" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="10">
         <v>505</v>
@@ -7090,7 +7013,7 @@
         <v>0.2225609756097561</v>
       </c>
       <c r="Q14" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R14" s="10">
         <v>306</v>
@@ -7136,7 +7059,7 @@
         <v>148</v>
       </c>
       <c r="Q15" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R15" s="10">
         <v>79</v>
@@ -7185,24 +7108,24 @@
         <v>4</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="R17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S17" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="T17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="5">
         <v>13497</v>
@@ -7226,7 +7149,7 @@
         <v>0.26184323858742464</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R18" s="2">
         <f>SUM(R5:R9)</f>
@@ -7247,7 +7170,7 @@
     </row>
     <row r="19" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="8">
         <v>19019</v>
@@ -7271,7 +7194,7 @@
         <v>0.2688888888888889</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R19" s="2">
         <f>SUM(R10:R14)</f>
@@ -7292,7 +7215,7 @@
     </row>
     <row r="20" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="8">
         <v>24070</v>
@@ -7316,7 +7239,7 @@
         <v>0.29317811146729655</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R20" s="2">
         <f>R15</f>
@@ -7337,7 +7260,7 @@
     </row>
     <row r="21" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="8">
         <v>26686</v>
@@ -7363,7 +7286,7 @@
     </row>
     <row r="22" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="10">
         <v>47556</v>
@@ -7389,7 +7312,7 @@
     </row>
     <row r="23" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="5">
         <v>2924</v>
@@ -7415,7 +7338,7 @@
     </row>
     <row r="24" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="8">
         <v>2261</v>
@@ -7441,7 +7364,7 @@
     </row>
     <row r="25" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="8">
         <v>4109</v>
@@ -7467,7 +7390,7 @@
     </row>
     <row r="26" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="8">
         <v>4822</v>
@@ -7493,7 +7416,7 @@
     </row>
     <row r="27" spans="2:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="10">
         <v>4680</v>
@@ -7553,10 +7476,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34479BFE-9DFF-4875-8A05-71FE2334A2CD}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56.25" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7566,264 +7489,109 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>79</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>82</v>
+        <v>57</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="19" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="19" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="19" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
